--- a/ArticleManage/main_working_folder/output_folders/Data 28 Adsorption properties of nitrogen-alloyed/Data28_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 28 Adsorption properties of nitrogen-alloyed/Data28_all_graphs_excel.xlsx
@@ -8,16 +8,13 @@
     <sheet name="Figure 2 ACF  0&amp;1&amp;0&amp;1000 " sheetId="1" r:id="rId1"/>
     <sheet name="Figure 2 ACF-Py1023-60  0&amp;1&amp;0&amp;1" sheetId="2" r:id="rId4"/>
     <sheet name="Figure 2 ACF-Py1273-60  0&amp;1&amp;0&amp;1" sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 6 ACF-303K  0&amp;1&amp;0&amp;500 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 6 ACF-Py1023-60-303K  0&amp;" sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 6 ACF-Py1273-60-303K  0&amp;" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ACF</t>
   </si>
@@ -32,15 +29,6 @@
   </si>
   <si>
     <t>ACF-Py1273-60</t>
-  </si>
-  <si>
-    <t>ACF-303K</t>
-  </si>
-  <si>
-    <t>ACF-Py1023-60-303K</t>
-  </si>
-  <si>
-    <t>ACF-Py1273-60-303K</t>
   </si>
 </sst>
 </file>
@@ -1026,948 +1014,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ACF-303K z wykresu 'Figure 6' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 6 ACF-303K  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 6 ACF-303K  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="500"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ACF-Py1023-60-303K z wykresu 'Figure 6' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 6 ACF-Py1023-60-303K  0&amp;'!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 6 ACF-Py1023-60-303K  0&amp;'!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="500"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ACF-Py1273-60-303K z wykresu 'Figure 6' </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f/>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Figure 6 ACF-Py1273-60-303K  0&amp;'!$A$3:$A$70</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Figure 6 ACF-Py1273-60-303K  0&amp;'!$B$3:$B$70</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Relative pressure</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="500"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr/>
-                  <a:t>Volume of gas adsorbed</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr kern="1200" sz="900" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-    <a:sp3d/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2088,126 +1134,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -3251,1569 +2177,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5422,111 +2785,6 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6657,824 +3915,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0">
-        <v>444.3561</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.9466</v>
-      </c>
-      <c r="B4" s="0">
-        <v>444.3986</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.8872</v>
-      </c>
-      <c r="B5" s="0">
-        <v>444.4458</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.8458</v>
-      </c>
-      <c r="B6" s="0">
-        <v>440.9016</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.7804</v>
-      </c>
-      <c r="B7" s="0">
-        <v>438.5689</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.713</v>
-      </c>
-      <c r="B8" s="0">
-        <v>437.4301</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.6495</v>
-      </c>
-      <c r="B9" s="0">
-        <v>434.3008</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.5828</v>
-      </c>
-      <c r="B10" s="0">
-        <v>433.9565</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.5154</v>
-      </c>
-      <c r="B11" s="0">
-        <v>426.8558</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.4446</v>
-      </c>
-      <c r="B12" s="0">
-        <v>418.1681</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.3805</v>
-      </c>
-      <c r="B13" s="0">
-        <v>406.6928</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.3138</v>
-      </c>
-      <c r="B14" s="0">
-        <v>388.0654</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.2623</v>
-      </c>
-      <c r="B15" s="0">
-        <v>372.208</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.2083</v>
-      </c>
-      <c r="B16" s="0">
-        <v>348.8011</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.1669</v>
-      </c>
-      <c r="B17" s="0">
-        <v>323.3967</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.1495</v>
-      </c>
-      <c r="B18" s="0">
-        <v>309.4996</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.1315</v>
-      </c>
-      <c r="B19" s="0">
-        <v>291.6284</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.1128</v>
-      </c>
-      <c r="B20" s="0">
-        <v>273.7577</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.0948</v>
-      </c>
-      <c r="B21" s="0">
-        <v>252.3094</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.0794</v>
-      </c>
-      <c r="B22" s="0">
-        <v>229.6666</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.0654</v>
-      </c>
-      <c r="B23" s="0">
-        <v>207.8176</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.0561</v>
-      </c>
-      <c r="B24" s="0">
-        <v>189.9395</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.0461</v>
-      </c>
-      <c r="B25" s="0">
-        <v>172.4594</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.0387</v>
-      </c>
-      <c r="B26" s="0">
-        <v>151.7975</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.0327</v>
-      </c>
-      <c r="B27" s="0">
-        <v>136.699</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.0267</v>
-      </c>
-      <c r="B28" s="0">
-        <v>121.6004</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.0207</v>
-      </c>
-      <c r="B29" s="0">
-        <v>103.7196</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.016</v>
-      </c>
-      <c r="B30" s="0">
-        <v>90.2098</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.012</v>
-      </c>
-      <c r="B31" s="0">
-        <v>68.7504</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.0073</v>
-      </c>
-      <c r="B32" s="0">
-        <v>52.8558</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.004</v>
-      </c>
-      <c r="B33" s="0">
-        <v>34.973</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="B34" s="0">
-        <v>19.0763</v>
-      </c>
-    </row>
-    <row r="35"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0">
-        <v>359.6979</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.9526</v>
-      </c>
-      <c r="B4" s="0">
-        <v>359.3382</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.8792</v>
-      </c>
-      <c r="B5" s="0">
-        <v>356.2169</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.8077</v>
-      </c>
-      <c r="B6" s="0">
-        <v>354.6838</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.739</v>
-      </c>
-      <c r="B7" s="0">
-        <v>353.1487</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.6722</v>
-      </c>
-      <c r="B8" s="0">
-        <v>351.2144</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.6021</v>
-      </c>
-      <c r="B9" s="0">
-        <v>349.6803</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.53</v>
-      </c>
-      <c r="B10" s="0">
-        <v>343.3783</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.4599</v>
-      </c>
-      <c r="B11" s="0">
-        <v>337.4722</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.3885</v>
-      </c>
-      <c r="B12" s="0">
-        <v>326.0028</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.3178</v>
-      </c>
-      <c r="B13" s="0">
-        <v>316.5201</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.2623</v>
-      </c>
-      <c r="B14" s="0">
-        <v>306.2302</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.213</v>
-      </c>
-      <c r="B15" s="0">
-        <v>281.2298</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.1676</v>
-      </c>
-      <c r="B16" s="0">
-        <v>257.021</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.1509</v>
-      </c>
-      <c r="B17" s="0">
-        <v>246.7004</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.1322</v>
-      </c>
-      <c r="B18" s="0">
-        <v>235.984</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.1142</v>
-      </c>
-      <c r="B19" s="0">
-        <v>218.5102</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.0961</v>
-      </c>
-      <c r="B20" s="0">
-        <v>202.2288</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.0801</v>
-      </c>
-      <c r="B21" s="0">
-        <v>181.5738</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.0654</v>
-      </c>
-      <c r="B22" s="0">
-        <v>161.7127</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.0561</v>
-      </c>
-      <c r="B23" s="0">
-        <v>150.9888</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.0461</v>
-      </c>
-      <c r="B24" s="0">
-        <v>134.3036</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.0394</v>
-      </c>
-      <c r="B25" s="0">
-        <v>125.9623</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.0327</v>
-      </c>
-      <c r="B26" s="0">
-        <v>111.6592</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.026</v>
-      </c>
-      <c r="B27" s="0">
-        <v>98.5485</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.0214</v>
-      </c>
-      <c r="B28" s="0">
-        <v>83.8463</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.0167</v>
-      </c>
-      <c r="B29" s="0">
-        <v>75.106</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.0134</v>
-      </c>
-      <c r="B30" s="0">
-        <v>63.1849</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.008</v>
-      </c>
-      <c r="B31" s="0">
-        <v>43.7138</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.004</v>
-      </c>
-      <c r="B32" s="0">
-        <v>27.0238</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.002</v>
-      </c>
-      <c r="B33" s="0">
-        <v>14.3068</v>
-      </c>
-    </row>
-    <row r="34"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.9973</v>
-      </c>
-      <c r="B3" s="0">
-        <v>303.6587</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.9453</v>
-      </c>
-      <c r="B4" s="0">
-        <v>304.0976</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.8792</v>
-      </c>
-      <c r="B5" s="0">
-        <v>304.1501</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.8138</v>
-      </c>
-      <c r="B6" s="0">
-        <v>302.6123</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.7483</v>
-      </c>
-      <c r="B7" s="0">
-        <v>301.0745</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.6816</v>
-      </c>
-      <c r="B8" s="0">
-        <v>299.9352</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.6168</v>
-      </c>
-      <c r="B9" s="0">
-        <v>298.7943</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.5507</v>
-      </c>
-      <c r="B10" s="0">
-        <v>294.8722</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.4786</v>
-      </c>
-      <c r="B11" s="0">
-        <v>290.955</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.4112</v>
-      </c>
-      <c r="B12" s="0">
-        <v>289.4187</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.3371</v>
-      </c>
-      <c r="B13" s="0">
-        <v>282.3234</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.2991</v>
-      </c>
-      <c r="B14" s="0">
-        <v>273.2122</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.2497</v>
-      </c>
-      <c r="B15" s="0">
-        <v>260.5329</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.2163</v>
-      </c>
-      <c r="B16" s="0">
-        <v>254.2001</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.1769</v>
-      </c>
-      <c r="B17" s="0">
-        <v>239.1281</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.1469</v>
-      </c>
-      <c r="B18" s="0">
-        <v>228.8181</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.1215</v>
-      </c>
-      <c r="B19" s="0">
-        <v>208.568</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.0995</v>
-      </c>
-      <c r="B20" s="0">
-        <v>187.9178</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.0841</v>
-      </c>
-      <c r="B21" s="0">
-        <v>174.4164</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.0661</v>
-      </c>
-      <c r="B22" s="0">
-        <v>157.7376</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.0501</v>
-      </c>
-      <c r="B23" s="0">
-        <v>128.3386</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.0407</v>
-      </c>
-      <c r="B24" s="0">
-        <v>115.6274</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.0354</v>
-      </c>
-      <c r="B25" s="0">
-        <v>98.541</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.028</v>
-      </c>
-      <c r="B26" s="0">
-        <v>82.2512</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.0207</v>
-      </c>
-      <c r="B27" s="0">
-        <v>72.718</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.014</v>
-      </c>
-      <c r="B28" s="0">
-        <v>53.6455</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.0087</v>
-      </c>
-      <c r="B29" s="0">
-        <v>36.9565</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.0067</v>
-      </c>
-      <c r="B30" s="0">
-        <v>16.2904</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0007</v>
-      </c>
-      <c r="B31" s="0">
-        <v>4.3715</v>
-      </c>
-    </row>
-    <row r="32"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>